--- a/data/raw.xlsx
+++ b/data/raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\DSAI_HW1_ElectricityForecasting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C621C1F7-5B1D-42A3-A3CA-61CE5263C06C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7035C2-7511-4071-B27F-FB97D57AE938}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1023,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J805"/>
+  <dimension ref="A1:J806"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A775" workbookViewId="0">
+      <selection activeCell="F806" sqref="F806"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -28171,11 +28171,11 @@
         <v>10.220000000000001</v>
       </c>
       <c r="I801" s="2">
-        <f t="shared" ref="I801:I805" si="27">$G801/($H801/100)</f>
+        <f t="shared" ref="I801:I806" si="27">$G801/($H801/100)</f>
         <v>29892.367906066531</v>
       </c>
       <c r="J801" s="2">
-        <f t="shared" ref="J801:J805" si="28">$I801+$G801</f>
+        <f t="shared" ref="J801:J806" si="28">$I801+$G801</f>
         <v>32947.367906066531</v>
       </c>
     </row>
@@ -28301,6 +28301,37 @@
       <c r="J805" s="2">
         <f t="shared" si="28"/>
         <v>28571.111888111889</v>
+      </c>
+    </row>
+    <row r="806" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A806" s="1">
+        <v>44270</v>
+      </c>
+      <c r="B806">
+        <v>2021</v>
+      </c>
+      <c r="C806">
+        <v>3</v>
+      </c>
+      <c r="D806">
+        <v>15</v>
+      </c>
+      <c r="E806">
+        <v>1</v>
+      </c>
+      <c r="G806">
+        <v>3074</v>
+      </c>
+      <c r="H806">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="I806" s="2">
+        <f t="shared" si="27"/>
+        <v>30078.277886497061</v>
+      </c>
+      <c r="J806" s="2">
+        <f t="shared" si="28"/>
+        <v>33152.277886497061</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw.xlsx
+++ b/data/raw.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\DSAI_HW1_ElectricityForecasting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7035C2-7511-4071-B27F-FB97D57AE938}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16129996-31A0-4FE0-BCF1-995060A16636}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,6 @@
     <sheet name="每日備轉容量" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1023,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J806"/>
+  <dimension ref="A1:J808"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A775" workbookViewId="0">
-      <selection activeCell="F806" sqref="F806"/>
+      <selection activeCell="L802" sqref="L802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -28171,11 +28160,11 @@
         <v>10.220000000000001</v>
       </c>
       <c r="I801" s="2">
-        <f t="shared" ref="I801:I806" si="27">$G801/($H801/100)</f>
+        <f t="shared" ref="I801:I808" si="27">$G801/($H801/100)</f>
         <v>29892.367906066531</v>
       </c>
       <c r="J801" s="2">
-        <f t="shared" ref="J801:J806" si="28">$I801+$G801</f>
+        <f t="shared" ref="J801:J808" si="28">$I801+$G801</f>
         <v>32947.367906066531</v>
       </c>
     </row>
@@ -28332,6 +28321,70 @@
       <c r="J806" s="2">
         <f t="shared" si="28"/>
         <v>33152.277886497061</v>
+      </c>
+    </row>
+    <row r="807" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A807" s="1">
+        <f>A806+1</f>
+        <v>44271</v>
+      </c>
+      <c r="B807">
+        <v>2021</v>
+      </c>
+      <c r="C807">
+        <v>3</v>
+      </c>
+      <c r="D807">
+        <v>16</v>
+      </c>
+      <c r="E807">
+        <v>2</v>
+      </c>
+      <c r="G807">
+        <v>3087</v>
+      </c>
+      <c r="H807">
+        <v>10.06</v>
+      </c>
+      <c r="I807" s="2">
+        <f t="shared" si="27"/>
+        <v>30685.884691848903</v>
+      </c>
+      <c r="J807" s="2">
+        <f t="shared" si="28"/>
+        <v>33772.8846918489</v>
+      </c>
+    </row>
+    <row r="808" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A808" s="1">
+        <f>A807+1</f>
+        <v>44272</v>
+      </c>
+      <c r="B808">
+        <v>2021</v>
+      </c>
+      <c r="C808">
+        <v>3</v>
+      </c>
+      <c r="D808">
+        <v>17</v>
+      </c>
+      <c r="E808">
+        <v>3</v>
+      </c>
+      <c r="G808">
+        <v>3183</v>
+      </c>
+      <c r="H808">
+        <v>10.36</v>
+      </c>
+      <c r="I808" s="2">
+        <f t="shared" si="27"/>
+        <v>30723.938223938225</v>
+      </c>
+      <c r="J808" s="2">
+        <f t="shared" si="28"/>
+        <v>33906.938223938225</v>
       </c>
     </row>
   </sheetData>
